--- a/biology/Botanique/Nitrophyte/Nitrophyte.xlsx
+++ b/biology/Botanique/Nitrophyte/Nitrophyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, une nitrophyte (appelée aussi plante nitrophile ou nitratophile) est une plante qui demande des sols riches en nitrates (azote) ou en déchets organiques à minéralisation rapide (processus microbiologiques édaphiques de décomposition et de nitrification), ou qui s'adaptent à ces milieux.
-C'est le cas de la grande ortie et de nombreuses plantes rudérales ou du champignon Clitocybe nitrophila par exemple[1].
+C'est le cas de la grande ortie et de nombreuses plantes rudérales ou du champignon Clitocybe nitrophila par exemple.
 On appelle aussi parfois ces plantes des « pointeurs d'azote ». Avec la diffusion des engrais chimiques, ces plantes sont favorisées au détriment d'autres plantes appréciant moins l'abondance d'azote, ce qui contribue à réduire la biodiversité.
 Une espèce nitrocline préfère les sols ou les eaux assez riches en nitrates.
 </t>
@@ -514,9 +526,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve ces plantes le plus souvent le long des côtes, des fleuves, des rivières (vases temporairement asséchées), dans les cultures, recrûs et jachères, à proximité immédiate des bâtiments et des lieux fréquentés par les animaux (chemins d'accès à la ferme, reposoirs enrichis en nitrates par les déjections du bétail, des oiseaux, friches « guanophiles » des îlots rocheux fréquentés par les oiseaux de mer), le long des routes et les lieux rudéraux en général[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve ces plantes le plus souvent le long des côtes, des fleuves, des rivières (vases temporairement asséchées), dans les cultures, recrûs et jachères, à proximité immédiate des bâtiments et des lieux fréquentés par les animaux (chemins d'accès à la ferme, reposoirs enrichis en nitrates par les déjections du bétail, des oiseaux, friches « guanophiles » des îlots rocheux fréquentés par les oiseaux de mer), le long des routes et les lieux rudéraux en général.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Environ 200 espèces de plantes à fleurs sont des pointeurs d'azote, la plupart sont des plantes herbacées.
 Les plus courantes sont les suivantes (entre parenthèses, l'indice d'azote) :
